--- a/ecommerce/src/test/resources/sample-data.xlsx
+++ b/ecommerce/src/test/resources/sample-data.xlsx
@@ -4,37 +4,100 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="t_user" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="t_product" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2a$10$ouU7VJi9oSIDCykxKiV7uuRjvUPcpwZk2TBV2L52DDOIvtSp79fnO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$2a$10$ouU7VJi9oSIDCykxKiV7uuRjvUPcpwZk2TBV2L52DDOIvtSp79fnO</t>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손목시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iwatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인시계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손목시계 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iwatch 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인시계설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,37 +444,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="63.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="D1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -423,25 +493,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>30000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecommerce/src/test/resources/sample-data.xlsx
+++ b/ecommerce/src/test/resources/sample-data.xlsx
@@ -4,18 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="t_user" sheetId="1" r:id="rId1"/>
-    <sheet name="t_product" sheetId="2" r:id="rId2"/>
+    <sheet name="t_role" sheetId="5" r:id="rId1"/>
+    <sheet name="t_user" sheetId="1" r:id="rId2"/>
+    <sheet name="t_user_role" sheetId="6" r:id="rId3"/>
+    <sheet name="t_product" sheetId="2" r:id="rId4"/>
+    <sheet name="t_cart" sheetId="3" r:id="rId5"/>
+    <sheet name="t_cart_product" sheetId="4" r:id="rId6"/>
+    <sheet name="t_product_comment" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +103,70 @@
   </si>
   <si>
     <t>유저01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노굿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +513,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,12 +603,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,4 +728,156 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>